--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication-medicationdispense.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication-medicationdispense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -430,7 +430,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -696,7 +696,7 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Use GTIN for Swiss products</t>
+    <t>GTIN for Swiss products</t>
   </si>
   <si>
     <t>Medication.code.coding:GTIN.id</t>
@@ -838,7 +838,7 @@
     <t>ATC</t>
   </si>
   <si>
-    <t>Use ATC for foreign products</t>
+    <t>ATC for foreign products</t>
   </si>
   <si>
     <t>Medication.code.coding:ATC.id</t>
@@ -956,7 +956,7 @@
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/edqm-pharmaceuticaldoseform</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/edqm-pharmaceuticaldoseform</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1015,7 +1015,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-ratio}
+    <t xml:space="preserve">Ratio {http://fhir.ch/ig/ch-core/StructureDefinition/ch-emed-ratio-with-emed-units}
 </t>
   </si>
   <si>
@@ -1082,6 +1082,9 @@
     <t>The ingredient may reference a substance (for example, amoxicillin) or another medication (for example in the case of a compounded product, Glaxal Base).</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/ActivePharmaceuticalIngredient</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -1120,9 +1123,6 @@
   </si>
   <si>
     <t>Ingredients coded with SNOMED CT</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-emed/ValueSet/ActivePharmaceuticalIngredient</t>
   </si>
   <si>
     <t>Medication.ingredient.item[x]:itemCodeableConcept.text</t>
@@ -1536,45 +1536,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.61328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.29296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="194.96484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="95.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="173.70703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8362,26 +8362,24 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>336</v>
@@ -8402,24 +8400,24 @@
         <v>197</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>336</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
@@ -8476,13 +8474,11 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8518,21 +8514,21 @@
         <v>197</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8641,10 +8637,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8753,10 +8749,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8782,7 +8778,7 @@
         <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>205</v>
@@ -8820,7 +8816,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication-medicationdispense.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medication-medicationdispense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,7 +423,7 @@
     <t>Medication.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -473,7 +473,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -517,7 +517,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -590,7 +590,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -637,7 +637,7 @@
     <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -1022,21 +1022,10 @@
     <t>Package size</t>
   </si>
   <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
+    <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
+  </si>
+  <si>
+    <t>.quantity</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -1073,6 +1062,10 @@
     <t>Medication.ingredient.item[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Substance|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
+  </si>
+  <si>
     <t>The actual ingredient or content</t>
   </si>
   <si>
@@ -1154,6 +1147,15 @@
   </si>
   <si>
     <t>Dose per unit</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
+  </si>
+  <si>
+    <t>//element(*,DrugCodedType)/Strength</t>
+  </si>
+  <si>
+    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1536,45 +1538,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.4140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="196.6875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4193,7 +4195,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>212</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>271</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>306</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>319</v>
@@ -7769,9 +7771,7 @@
       <c r="M55" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7829,30 +7829,30 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7875,16 +7875,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7934,7 +7934,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -7952,7 +7952,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -7963,10 +7963,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8075,10 +8075,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8187,10 +8187,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8272,7 +8272,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8301,10 +8301,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8327,17 +8327,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8366,23 +8366,23 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8400,24 +8400,24 @@
         <v>197</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
@@ -8442,14 +8442,14 @@
         <v>191</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8496,7 +8496,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>88</v>
@@ -8514,21 +8514,21 @@
         <v>197</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8637,10 +8637,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8749,10 +8749,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8778,7 +8778,7 @@
         <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>205</v>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -8861,12 +8861,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8892,7 +8892,7 @@
         <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>273</v>
@@ -8979,10 +8979,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9008,14 +9008,14 @@
         <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9064,7 +9064,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9082,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9091,12 +9091,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9122,14 +9122,12 @@
         <v>319</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9178,7 +9176,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9187,30 +9185,30 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>175</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9233,13 +9231,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9290,7 +9288,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9308,7 +9306,7 @@
         <v>292</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9319,10 +9317,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9431,10 +9429,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9543,10 +9541,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9628,7 +9626,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -9657,10 +9655,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9686,10 +9684,10 @@
         <v>102</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9740,7 +9738,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -9764,15 +9762,15 @@
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9795,13 +9793,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9852,7 +9850,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -9870,23 +9868,23 @@
         <v>292</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN73">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
